--- a/강서구/weight.xlsx
+++ b/강서구/weight.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunwon\Desktop\multi\Project\강서구\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A332BBAC-54FE-44DB-B4EC-B5483994005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1인가구" sheetId="1" r:id="rId1"/>
     <sheet name="지역" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>1인가구</t>
   </si>
@@ -172,10 +190,6 @@
   </si>
   <si>
     <t>전체65세이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성20~34</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -262,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,6 +364,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -397,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,9 +447,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +499,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,11 +691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -664,11 +715,9 @@
         <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -683,9 +732,6 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -698,9 +744,6 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -717,9 +760,6 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -732,9 +772,6 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="H5">
         <v>0</v>
       </c>
     </row>
@@ -751,9 +788,6 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -768,9 +802,6 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -785,9 +816,6 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -802,9 +830,6 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -819,9 +844,6 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -836,9 +858,6 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -853,9 +872,6 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -870,9 +886,6 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -887,9 +900,6 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -904,9 +914,6 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -921,11 +928,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -938,11 +942,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -955,11 +956,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -972,11 +970,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -989,11 +984,8 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1006,11 +998,8 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1023,11 +1012,8 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1040,11 +1026,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1057,11 +1040,8 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1074,11 +1054,8 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1091,11 +1068,8 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1108,11 +1082,8 @@
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1125,11 +1096,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1142,11 +1110,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1159,11 +1124,8 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1176,11 +1138,8 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1193,11 +1152,8 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1210,11 +1166,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1227,11 +1180,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1244,11 +1194,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1261,11 +1208,8 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1278,11 +1222,8 @@
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1295,11 +1236,8 @@
       <c r="D38">
         <v>3</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1312,11 +1250,8 @@
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1329,11 +1264,8 @@
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1346,11 +1278,8 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1363,11 +1292,8 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1380,11 +1306,8 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1397,11 +1320,8 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1414,11 +1334,8 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1431,11 +1348,8 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1448,11 +1362,8 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1465,11 +1376,8 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1482,11 +1390,8 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1499,11 +1404,8 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1516,11 +1418,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1532,9 +1431,6 @@
       </c>
       <c r="D52">
         <v>3</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1558,233 +1454,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1794,16 +1690,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1812,7 +1710,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
